--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.819349775725755</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.200290466772401</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.537707027434976</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007276089253624758</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.344269324948812</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.793867033069205</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.8635132215515</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.294815725449823</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007434048736554004</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.297288951667937</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.189433218214276</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.665392678265846</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.153156825785175</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007531231737714162</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.273018365312808</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.948284929538772</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.586417200967787</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.096935365035577</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007570998950690882</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.264109443365399</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.908523771006458</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.573398896939693</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.087681187268402</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007577615177817953</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.262685020970039</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.186161506555038</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.66432095748587</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.152392949057358</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000753176724740027</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.27289444404515</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.459748829916123</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.082094162178066</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.452155388505417</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007330589634197898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.327008859774566</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9.225557124167096</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.994437373045628</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.121627054627865</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006930935684193197</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.479200605520646</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11.55297188948748</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.768940704481679</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.708023037345043</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006621176190988922</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.637939705774556</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12.72308242618942</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4.161075432945438</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.012178469015979</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006472066234984949</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.72707553966427</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13.18852041652087</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.317617017534928</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.135099412885154</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006413788376962208</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.764165996603282</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13.0871513431116</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.283495215403548</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.108230049203641</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006426433791661967</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.756010269208758</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12.76087916074516</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4.173775432463742</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.022117945760911</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000646731278581317</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.730053374068746</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>12.56417724376399</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.107705386866712</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.970471671707713</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136552</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006492092118999204</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.714622701051979</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>11.47922066055924</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.744289747295625</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.689074652227177</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006630708177555915</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.632523179023536</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10.84583379197477</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.53288733966167</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.527373604877837</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006713277726813535</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.587017602303632</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10.49151062828832</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.414858100280242</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.437699029772091</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006760047819311943</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.562366121437037</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>10.37310792525636</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3.375452794270075</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.407854386151527</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006775774340073959</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.554259593206069</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10.91218857334889</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.555009112261473</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.544228616817094</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006704566445284685</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.591698931197925</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>12.85604092739015</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4.205760044695239</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.047175789590142</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.470978708896936</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006455361477989821</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.737577594072235</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>14.26233707885797</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4.680071231060367</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.423240717759157</v>
       </c>
       <c r="F22">
         <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006281351156838121</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.85316998791933</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>13.49631536139896</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4.421321545565547</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.217027297548753</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000637554799198398</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.789192544081402</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>10.8821594211438</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.544997087074819</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.536598378434235</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000670850695381199</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.589577859538139</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8.437408398522507</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.733645462362801</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.928058455383123</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.00070407044770843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.431494894968466</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.819349775725755</v>
+        <v>0.7728541758987149</v>
       </c>
       <c r="C2">
-        <v>2.200290466772401</v>
+        <v>0.140935047795594</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.537707027434976</v>
+        <v>0.3288361728777716</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007276089253624758</v>
+        <v>0.5984790715454693</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.452838902770921</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4190399696573373</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8711599008874487</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5879999656842685</v>
       </c>
       <c r="N2">
-        <v>1.344269324948812</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.793867033069205</v>
+        <v>0.6713625715709952</v>
       </c>
       <c r="C3">
-        <v>1.8635132215515</v>
+        <v>0.1223616928438673</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.294815725449823</v>
+        <v>0.2856680365235462</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007434048736554004</v>
+        <v>0.5794600045680198</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4523545758474654</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4208510767714237</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7566380199921667</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5083989150673034</v>
       </c>
       <c r="N3">
-        <v>1.297288951667937</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.189433218214276</v>
+        <v>0.609267424003832</v>
       </c>
       <c r="C4">
-        <v>1.665392678265846</v>
+        <v>0.1110384039020431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.153156825785175</v>
+        <v>0.2596731421485146</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007531231737714162</v>
+        <v>0.5694376350554933</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4530055274465354</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4229974778917303</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6866206303271838</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4600711581863024</v>
       </c>
       <c r="N4">
-        <v>1.273018365312808</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.948284929538772</v>
+        <v>0.5840050274769624</v>
       </c>
       <c r="C5">
-        <v>1.586417200967787</v>
+        <v>0.1064403408976915</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.096935365035577</v>
+        <v>0.249193603270129</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007570998950690882</v>
+        <v>0.565743890613831</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4534977084040293</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4241191363746388</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.658145909386576</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4404957424675331</v>
       </c>
       <c r="N5">
-        <v>1.264109443365399</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.908523771006458</v>
+        <v>0.5798123714321548</v>
       </c>
       <c r="C6">
-        <v>1.573398896939693</v>
+        <v>0.1056777053198061</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.087681187268402</v>
+        <v>0.2474599307976888</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007577615177817953</v>
+        <v>0.5651534040739818</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4535928150854147</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.424319935152333</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6534207164872896</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4372518824544684</v>
       </c>
       <c r="N6">
-        <v>1.262685020970039</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.186161506555038</v>
+        <v>0.6089265743948431</v>
       </c>
       <c r="C7">
-        <v>1.66432095748587</v>
+        <v>0.1109763321035899</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.152392949057358</v>
+        <v>0.2595313703224065</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000753176724740027</v>
+        <v>0.5693862719862608</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4530112611665942</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4230116217176345</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6862363978502088</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4598067017505869</v>
       </c>
       <c r="N7">
-        <v>1.27289444404515</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.459748829916123</v>
+        <v>0.7378054081614493</v>
       </c>
       <c r="C8">
-        <v>2.082094162178066</v>
+        <v>0.1345116464906795</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.452155388505417</v>
+        <v>0.3138366229218761</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007330589634197898</v>
+        <v>0.591561680216202</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4524679045932487</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4194416117407904</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8315997378319935</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5604279140100203</v>
       </c>
       <c r="N8">
-        <v>1.327008859774566</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.225557124167096</v>
+        <v>0.9929692507147081</v>
       </c>
       <c r="C9">
-        <v>2.994437373045628</v>
+        <v>0.1815054443981126</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.121627054627865</v>
+        <v>0.425104247526356</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0006930935684193197</v>
+        <v>0.6494327772171147</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4594862418616685</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.421281856705221</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.119891361699246</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7630315041173361</v>
       </c>
       <c r="N9">
-        <v>1.479200605520646</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.55297188948748</v>
+        <v>1.182959670824857</v>
       </c>
       <c r="C10">
-        <v>3.768940704481679</v>
+        <v>0.2168500858585247</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.708023037345043</v>
+        <v>0.5108671065312365</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0006621176190988922</v>
+        <v>0.7026012378860571</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4704120540794463</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.428974727788983</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.334983356922635</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9165399298697068</v>
       </c>
       <c r="N10">
-        <v>1.637939705774556</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.72308242618942</v>
+        <v>1.270193861097368</v>
       </c>
       <c r="C11">
-        <v>4.161075432945438</v>
+        <v>0.2331826405012691</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.012178469015979</v>
+        <v>0.5510278334631167</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006472066234984949</v>
+        <v>0.7295621495541837</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4768414232915745</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4340838154414612</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.433870288088514</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9877395310523625</v>
       </c>
       <c r="N11">
-        <v>1.72707553966427</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.18852041652087</v>
+        <v>1.303366267020749</v>
       </c>
       <c r="C12">
-        <v>4.317617017534928</v>
+        <v>0.2394108605370633</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.135099412885154</v>
+        <v>0.5664258433569174</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006413788376962208</v>
+        <v>0.7402129086811868</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4795049095473729</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4362713861437655</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.471495180651857</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.014930168283158</v>
       </c>
       <c r="N12">
-        <v>1.764165996603282</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.0871513431116</v>
+        <v>1.296215442110622</v>
       </c>
       <c r="C13">
-        <v>4.283495215403548</v>
+        <v>0.2380674528407809</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.108230049203641</v>
+        <v>0.5631007283538878</v>
       </c>
       <c r="F13">
-        <v>2.504295469238414</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0006426433791661967</v>
+        <v>0.7378987365338503</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4789207814953471</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4357886449098487</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.463383555280416</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.009063451250952</v>
       </c>
       <c r="N13">
-        <v>1.756010269208758</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.76087916074516</v>
+        <v>1.272920057217362</v>
       </c>
       <c r="C14">
-        <v>4.173775432463742</v>
+        <v>0.2336941274202644</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.022117945760911</v>
+        <v>0.5522906759488961</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000646731278581317</v>
+        <v>0.730429294278224</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4770558487723804</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4342585905766967</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.436961956575942</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9899717380613424</v>
       </c>
       <c r="N14">
-        <v>1.730053374068746</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.56417724376399</v>
+        <v>1.25866973600418</v>
       </c>
       <c r="C15">
-        <v>4.107705386866712</v>
+        <v>0.2310212124143334</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.970471671707713</v>
+        <v>0.5456947405845085</v>
       </c>
       <c r="F15">
-        <v>2.428326063136552</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0006492092118999204</v>
+        <v>0.7259128312885252</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4759439173624145</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4333549885571912</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.420802123285142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9783083305553006</v>
       </c>
       <c r="N15">
-        <v>1.714622701051979</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.47922066055924</v>
+        <v>1.177276837355748</v>
       </c>
       <c r="C16">
-        <v>3.744289747295625</v>
+        <v>0.2157884022895757</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.689074652227177</v>
+        <v>0.508267674412501</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0006630708177555915</v>
+        <v>0.700898633423563</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4700228260427792</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4286750120706415</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.328544213256635</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9119170749696721</v>
       </c>
       <c r="N16">
-        <v>1.632523179023536</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.84583379197477</v>
+        <v>1.127567040646682</v>
       </c>
       <c r="C17">
-        <v>3.53288733966167</v>
+        <v>0.2065133443194469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.527373604877837</v>
+        <v>0.4856181902327847</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0006713277726813535</v>
+        <v>0.6862926982338564</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4667771293683955</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4262308810915201</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.272233222336951</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8715604745081151</v>
       </c>
       <c r="N17">
-        <v>1.587017602303632</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.49151062828832</v>
+        <v>1.099049721773014</v>
       </c>
       <c r="C18">
-        <v>3.414858100280242</v>
+        <v>0.2012020420142022</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.437699029772091</v>
+        <v>0.4726971015151449</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0006760047819311943</v>
+        <v>0.6781501298738988</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4650463973971455</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4249751890029145</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.239940681190404</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8484750700344392</v>
       </c>
       <c r="N18">
-        <v>1.562366121437037</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.37310792525636</v>
+        <v>1.089406374128288</v>
       </c>
       <c r="C19">
-        <v>3.375452794270075</v>
+        <v>0.1994075573616954</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.407854386151527</v>
+        <v>0.4683397742935895</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0006775774340073959</v>
+        <v>0.6754363464564932</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4644832270894454</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4245751930507424</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.229022640332516</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8406795690462872</v>
       </c>
       <c r="N19">
-        <v>1.554259593206069</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.91218857334889</v>
+        <v>1.132850870962386</v>
       </c>
       <c r="C20">
-        <v>3.555009112261473</v>
+        <v>0.2074982136575727</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.544228616817094</v>
+        <v>0.4880180913368335</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0006704566445284685</v>
+        <v>0.6878204895732694</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4671084207130463</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4264753784942954</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.278217481447058</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.875843172903835</v>
       </c>
       <c r="N20">
-        <v>1.591698931197925</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.85604092739015</v>
+        <v>1.279758520251931</v>
       </c>
       <c r="C21">
-        <v>4.205760044695239</v>
+        <v>0.2349774418638617</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.047175789590142</v>
+        <v>0.5554604806996082</v>
       </c>
       <c r="F21">
-        <v>2.470978708896936</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006455361477989821</v>
+        <v>0.7326109184379561</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4775972542505684</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4347009612801713</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.444717530357877</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9955729525684092</v>
       </c>
       <c r="N21">
-        <v>1.737577594072235</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26233707885797</v>
+        <v>1.376591784995156</v>
       </c>
       <c r="C22">
-        <v>4.680071231060367</v>
+        <v>0.2531935978071829</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.423240717759157</v>
+        <v>0.6006590697001286</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006281351156838121</v>
+        <v>0.7644785379174266</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4857962100074786</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4415621815721025</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.554591163392303</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.075174741347091</v>
       </c>
       <c r="N22">
-        <v>1.85316998791933</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.49631536139896</v>
+        <v>1.324826891171341</v>
       </c>
       <c r="C23">
-        <v>4.421321545565547</v>
+        <v>0.2434453237860339</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.217027297548753</v>
+        <v>0.5764241772361345</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.000637554799198398</v>
+        <v>0.7472177632809576</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4812905541688224</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4377567075850948</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.495842602981696</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.032554627168835</v>
       </c>
       <c r="N23">
-        <v>1.789192544081402</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.8821594211438</v>
+        <v>1.130461861392803</v>
       </c>
       <c r="C24">
-        <v>3.544997087074819</v>
+        <v>0.2070528891699155</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.536598378434235</v>
+        <v>0.4869327851862479</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.000670850695381199</v>
+        <v>0.6871289853042128</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.466958223998887</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4263643772437504</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.27551174652146</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8739066055954297</v>
       </c>
       <c r="N24">
-        <v>1.589577859538139</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.437408398522507</v>
+        <v>0.9235782025326102</v>
       </c>
       <c r="C25">
-        <v>2.733645462362801</v>
+        <v>0.1686724210698571</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.928058455383123</v>
+        <v>0.3943841746257135</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.00070407044770843</v>
+        <v>0.6320521922034743</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4566395016062472</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4197440011711109</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.041425731524754</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7075154864438744</v>
       </c>
       <c r="N25">
-        <v>1.431494894968466</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7728541758987149</v>
+        <v>0.264701291173111</v>
       </c>
       <c r="C2">
-        <v>0.140935047795594</v>
+        <v>0.04279265066249138</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3288361728777716</v>
+        <v>0.155992084214823</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.5984790715454693</v>
+        <v>0.7875958996127252</v>
       </c>
       <c r="H2">
-        <v>0.452838902770921</v>
+        <v>0.8637624282434473</v>
       </c>
       <c r="I2">
-        <v>0.4190399696573373</v>
+        <v>0.7105404212837456</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8711599008874487</v>
+        <v>0.2842951474065387</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5879999656842685</v>
+        <v>0.2289909675444406</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6713625715709952</v>
+        <v>0.2346120983195021</v>
       </c>
       <c r="C3">
-        <v>0.1223616928438673</v>
+        <v>0.03727357622452132</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2856680365235462</v>
+        <v>0.1449832165851177</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.5794600045680198</v>
+        <v>0.7885799687407768</v>
       </c>
       <c r="H3">
-        <v>0.4523545758474654</v>
+        <v>0.8690837821736892</v>
       </c>
       <c r="I3">
-        <v>0.4208510767714237</v>
+        <v>0.7157964830893597</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7566380199921667</v>
+        <v>0.2503307836205408</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5083989150673034</v>
+        <v>0.2071061116803037</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.609267424003832</v>
+        <v>0.2161603653072177</v>
       </c>
       <c r="C4">
-        <v>0.1110384039020431</v>
+        <v>0.03387878703541958</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2596731421485146</v>
+        <v>0.1383270589604066</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.5694376350554933</v>
+        <v>0.7897599676313831</v>
       </c>
       <c r="H4">
-        <v>0.4530055274465354</v>
+        <v>0.8727805951642864</v>
       </c>
       <c r="I4">
-        <v>0.4229974778917303</v>
+        <v>0.719439602606009</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6866206303271838</v>
+        <v>0.2294884120931044</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4600711581863024</v>
+        <v>0.1937621308272242</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5840050274769624</v>
+        <v>0.2086472397703574</v>
       </c>
       <c r="C5">
-        <v>0.1064403408976915</v>
+        <v>0.03249383540565987</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.249193603270129</v>
+        <v>0.135640358407116</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.565743890613831</v>
+        <v>0.7903851682388137</v>
       </c>
       <c r="H5">
-        <v>0.4534977084040293</v>
+        <v>0.8743949677764959</v>
       </c>
       <c r="I5">
-        <v>0.4241191363746388</v>
+        <v>0.7210285844773061</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.658145909386576</v>
+        <v>0.2209981818728579</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4404957424675331</v>
+        <v>0.188347693198601</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5798123714321548</v>
+        <v>0.2074000681861889</v>
       </c>
       <c r="C6">
-        <v>0.1056777053198061</v>
+        <v>0.0322637710716549</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2474599307976888</v>
+        <v>0.1351957811587923</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5651534040739818</v>
+        <v>0.7904976872494558</v>
       </c>
       <c r="H6">
-        <v>0.4535928150854147</v>
+        <v>0.8746695464281657</v>
       </c>
       <c r="I6">
-        <v>0.424319935152333</v>
+        <v>0.7212987323782727</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6534207164872896</v>
+        <v>0.2195885856972666</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4372518824544684</v>
+        <v>0.1874500356190651</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6089265743948431</v>
+        <v>0.2160590155694138</v>
       </c>
       <c r="C7">
-        <v>0.1109763321035899</v>
+        <v>0.03386011539078027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2595313703224065</v>
+        <v>0.1382907212895361</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.5693862719862608</v>
+        <v>0.7897678154615448</v>
       </c>
       <c r="H7">
-        <v>0.4530112611665942</v>
+        <v>0.8728019304524679</v>
       </c>
       <c r="I7">
-        <v>0.4230116217176345</v>
+        <v>0.7194606097968759</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6862363978502088</v>
+        <v>0.2293738966098857</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4598067017505869</v>
+        <v>0.1936890155029616</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7378054081614493</v>
+        <v>0.2543218917618049</v>
       </c>
       <c r="C8">
-        <v>0.1345116464906795</v>
+        <v>0.0408909138260185</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3138366229218761</v>
+        <v>0.1521746284958923</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.591561680216202</v>
+        <v>0.7878154362507672</v>
       </c>
       <c r="H8">
-        <v>0.4524679045932487</v>
+        <v>0.8655080286595762</v>
       </c>
       <c r="I8">
-        <v>0.4194416117407904</v>
+        <v>0.7122662789933258</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8315997378319935</v>
+        <v>0.2725818865574468</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5604279140100203</v>
+        <v>0.2214255871762987</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9929692507147081</v>
+        <v>0.3295304497594884</v>
       </c>
       <c r="C9">
-        <v>0.1815054443981126</v>
+        <v>0.05463205085544587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.425104247526356</v>
+        <v>0.1802334015684792</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6494327772171147</v>
+        <v>0.7885762470052242</v>
       </c>
       <c r="H9">
-        <v>0.4594862418616685</v>
+        <v>0.8546175250931611</v>
       </c>
       <c r="I9">
-        <v>0.421281856705221</v>
+        <v>0.7014670059342905</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.119891361699246</v>
+        <v>0.3574018098875626</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7630315041173361</v>
+        <v>0.27656759910505</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.182959670824857</v>
+        <v>0.3848872835358748</v>
       </c>
       <c r="C10">
-        <v>0.2168500858585247</v>
+        <v>0.06470296864520719</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5108671065312365</v>
+        <v>0.2013752515792078</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.7026012378860571</v>
+        <v>0.791963333727665</v>
       </c>
       <c r="H10">
-        <v>0.4704120540794463</v>
+        <v>0.8487043598333059</v>
       </c>
       <c r="I10">
-        <v>0.428974727788983</v>
+        <v>0.6955626887565103</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.334983356922635</v>
+        <v>0.4197730153111365</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9165399298697068</v>
+        <v>0.3175555041579301</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.270193861097368</v>
+        <v>0.4100916983894081</v>
       </c>
       <c r="C11">
-        <v>0.2331826405012691</v>
+        <v>0.069279945352406</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5510278334631167</v>
+        <v>0.2111120281015744</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.7295621495541837</v>
+        <v>0.7941249120798517</v>
       </c>
       <c r="H11">
-        <v>0.4768414232915745</v>
+        <v>0.8464693945928587</v>
       </c>
       <c r="I11">
-        <v>0.4340838154414612</v>
+        <v>0.6933202219017218</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.433870288088514</v>
+        <v>0.4481594019385682</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9877395310523625</v>
+        <v>0.3363091507948823</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.303366267020749</v>
+        <v>0.4196389717394879</v>
       </c>
       <c r="C12">
-        <v>0.2394108605370633</v>
+        <v>0.07101254905212784</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5664258433569174</v>
+        <v>0.2148165455445863</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7402129086811868</v>
+        <v>0.7950332227183736</v>
       </c>
       <c r="H12">
-        <v>0.4795049095473729</v>
+        <v>0.8456886280309703</v>
       </c>
       <c r="I12">
-        <v>0.4362713861437655</v>
+        <v>0.6925350483562482</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.471495180651857</v>
+        <v>0.4589104068303413</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.014930168283158</v>
+        <v>0.3434264401367386</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.296215442110622</v>
+        <v>0.4175826709899866</v>
       </c>
       <c r="C13">
-        <v>0.2380674528407809</v>
+        <v>0.07063942803608825</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5631007283538878</v>
+        <v>0.2140179328242482</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.7378987365338503</v>
+        <v>0.7948336013416224</v>
       </c>
       <c r="H13">
-        <v>0.4789207814953471</v>
+        <v>0.8458538617148434</v>
       </c>
       <c r="I13">
-        <v>0.4357886449098487</v>
+        <v>0.6927012993756989</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.463383555280416</v>
+        <v>0.4565949137827943</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.009063451250952</v>
+        <v>0.3418929042273362</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.272920057217362</v>
+        <v>0.4108771017314155</v>
       </c>
       <c r="C14">
-        <v>0.2336941274202644</v>
+        <v>0.06942249954128954</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5522906759488961</v>
+        <v>0.2114164505087572</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.730429294278224</v>
+        <v>0.7941978373915504</v>
       </c>
       <c r="H14">
-        <v>0.4770558487723804</v>
+        <v>0.8464038455900749</v>
       </c>
       <c r="I14">
-        <v>0.4342585905766967</v>
+        <v>0.6932543412032928</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.436961956575942</v>
+        <v>0.4490438609021226</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9899717380613424</v>
+        <v>0.3368943791253187</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.25866973600418</v>
+        <v>0.4067701168568476</v>
       </c>
       <c r="C15">
-        <v>0.2310212124143334</v>
+        <v>0.06867701857677844</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5456947405845085</v>
+        <v>0.2098252428379439</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7259128312885252</v>
+        <v>0.7938201189086698</v>
       </c>
       <c r="H15">
-        <v>0.4759439173624145</v>
+        <v>0.8467492695175878</v>
       </c>
       <c r="I15">
-        <v>0.4333549885571912</v>
+        <v>0.6936014369384935</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.420802123285142</v>
+        <v>0.4444188370607094</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9783083305553006</v>
+        <v>0.3338346861220529</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.177276837355748</v>
+        <v>0.3832405390132578</v>
       </c>
       <c r="C16">
-        <v>0.2157884022895757</v>
+        <v>0.06440376737785414</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.508267674412501</v>
+        <v>0.2007413523871904</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.700898633423563</v>
+        <v>0.7918346039193267</v>
       </c>
       <c r="H16">
-        <v>0.4700228260427792</v>
+        <v>0.8488595873071887</v>
       </c>
       <c r="I16">
-        <v>0.4286750120706415</v>
+        <v>0.6957181823424321</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.328544213256635</v>
+        <v>0.4179181481342766</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9119170749696721</v>
+        <v>0.3163320964599166</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.127567040646682</v>
+        <v>0.3688114054590699</v>
       </c>
       <c r="C17">
-        <v>0.2065133443194469</v>
+        <v>0.06178117381394088</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4856181902327847</v>
+        <v>0.1951994085708293</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.6862926982338564</v>
+        <v>0.7907759067857256</v>
       </c>
       <c r="H17">
-        <v>0.4667771293683955</v>
+        <v>0.8502708275154447</v>
       </c>
       <c r="I17">
-        <v>0.4262308810915201</v>
+        <v>0.6971304784891146</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.272233222336951</v>
+        <v>0.4016641026146033</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8715604745081151</v>
+        <v>0.3056226059129372</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.099049721773014</v>
+        <v>0.3605142674568071</v>
       </c>
       <c r="C18">
-        <v>0.2012020420142022</v>
+        <v>0.06027231785286347</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4726971015151449</v>
+        <v>0.192023036887278</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6781501298738988</v>
+        <v>0.7902253725651036</v>
       </c>
       <c r="H18">
-        <v>0.4650463973971455</v>
+        <v>0.8511253502392009</v>
       </c>
       <c r="I18">
-        <v>0.4249751890029145</v>
+        <v>0.6979845181965345</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.239940681190404</v>
+        <v>0.3923164816415294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8484750700344392</v>
+        <v>0.2994729504139428</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.089406374128288</v>
+        <v>0.3577053720627248</v>
       </c>
       <c r="C19">
-        <v>0.1994075573616954</v>
+        <v>0.05976137405809823</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4683397742935895</v>
+        <v>0.1909494889271812</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.6754363464564932</v>
+        <v>0.7900489861968225</v>
       </c>
       <c r="H19">
-        <v>0.4644832270894454</v>
+        <v>0.8514220260719725</v>
       </c>
       <c r="I19">
-        <v>0.4245751930507424</v>
+        <v>0.6982808404279197</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.229022640332516</v>
+        <v>0.3891517641051507</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8406795690462872</v>
+        <v>0.2973925230933432</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.132850870962386</v>
+        <v>0.3703471943414343</v>
       </c>
       <c r="C20">
-        <v>0.2074982136575727</v>
+        <v>0.06206039557746124</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4880180913368335</v>
+        <v>0.1957881960739272</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.6878204895732694</v>
+        <v>0.7908825590515249</v>
       </c>
       <c r="H20">
-        <v>0.4671084207130463</v>
+        <v>0.8501161663886023</v>
       </c>
       <c r="I20">
-        <v>0.4264753784942954</v>
+        <v>0.6969758171434179</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.278217481447058</v>
+        <v>0.4033942431316859</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.875843172903835</v>
+        <v>0.306761596814745</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.279758520251931</v>
+        <v>0.4128466134091298</v>
       </c>
       <c r="C21">
-        <v>0.2349774418638617</v>
+        <v>0.06977995696605888</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5554604806996082</v>
+        <v>0.2121800942682981</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.7326109184379561</v>
+        <v>0.794382136407549</v>
       </c>
       <c r="H21">
-        <v>0.4775972542505684</v>
+        <v>0.8462405213995936</v>
       </c>
       <c r="I21">
-        <v>0.4347009612801713</v>
+        <v>0.6930901606020683</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.444717530357877</v>
+        <v>0.4512617439689564</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9955729525684092</v>
+        <v>0.3383621400454189</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376591784995156</v>
+        <v>0.4406392563889199</v>
       </c>
       <c r="C22">
-        <v>0.2531935978071829</v>
+        <v>0.07482166283425329</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6006590697001286</v>
+        <v>0.2229947585348953</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.7644785379174266</v>
+        <v>0.7971927807730594</v>
       </c>
       <c r="H22">
-        <v>0.4857962100074786</v>
+        <v>0.844089800727275</v>
       </c>
       <c r="I22">
-        <v>0.4415621815721025</v>
+        <v>0.6909238093098438</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.554591163392303</v>
+        <v>0.4825557052014631</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.075174741347091</v>
+        <v>0.359106450130291</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.324826891171341</v>
+        <v>0.4258043594211074</v>
       </c>
       <c r="C23">
-        <v>0.2434453237860339</v>
+        <v>0.07213111888734147</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5764241772361345</v>
+        <v>0.2172133834976009</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.7472177632809576</v>
+        <v>0.7956446240055328</v>
       </c>
       <c r="H23">
-        <v>0.4812905541688224</v>
+        <v>0.8452026586014654</v>
       </c>
       <c r="I23">
-        <v>0.4377567075850948</v>
+        <v>0.692045811017401</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.495842602981696</v>
+        <v>0.4658527098900436</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.032554627168835</v>
+        <v>0.348026395207512</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.130461861392803</v>
+        <v>0.3696528692655647</v>
       </c>
       <c r="C24">
-        <v>0.2070528891699155</v>
+        <v>0.06193416282299324</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4869327851862479</v>
+        <v>0.1955219748487949</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6871289853042128</v>
+        <v>0.7908341605400153</v>
       </c>
       <c r="H24">
-        <v>0.466958223998887</v>
+        <v>0.8501859541787127</v>
       </c>
       <c r="I24">
-        <v>0.4263643772437504</v>
+        <v>0.697045608437044</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.27551174652146</v>
+        <v>0.4026120557897457</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8739066055954297</v>
+        <v>0.3062466360777378</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9235782025326102</v>
+        <v>0.3091663897014598</v>
       </c>
       <c r="C25">
-        <v>0.1686724210698571</v>
+        <v>0.05091930051403892</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3943841746257135</v>
+        <v>0.172551619601812</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6320521922034743</v>
+        <v>0.7878759686038137</v>
       </c>
       <c r="H25">
-        <v>0.4566395016062472</v>
+        <v>0.857197552630538</v>
       </c>
       <c r="I25">
-        <v>0.4197440011711109</v>
+        <v>0.7040329468727506</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.041425731524754</v>
+        <v>0.3344462768597793</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7075154864438744</v>
+        <v>0.2615680635631819</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.264701291173111</v>
+        <v>0.7728541758987717</v>
       </c>
       <c r="C2">
-        <v>0.04279265066249138</v>
+        <v>0.1409350477958924</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.155992084214823</v>
+        <v>0.3288361728777787</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7875958996127252</v>
+        <v>0.5984790715455119</v>
       </c>
       <c r="H2">
-        <v>0.8637624282434473</v>
+        <v>0.4528389027708926</v>
       </c>
       <c r="I2">
-        <v>0.7105404212837456</v>
+        <v>0.4190399696573408</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2842951474065387</v>
+        <v>0.8711599008874771</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2289909675444406</v>
+        <v>0.5879999656842685</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2346120983195021</v>
+        <v>0.6713625715711089</v>
       </c>
       <c r="C3">
-        <v>0.03727357622452132</v>
+        <v>0.1223616928438531</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1449832165851177</v>
+        <v>0.2856680365235533</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.7885799687407768</v>
+        <v>0.5794600045679772</v>
       </c>
       <c r="H3">
-        <v>0.8690837821736892</v>
+        <v>0.4523545758474654</v>
       </c>
       <c r="I3">
-        <v>0.7157964830893597</v>
+        <v>0.4208510767714095</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2503307836205408</v>
+        <v>0.7566380199922236</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2071061116803037</v>
+        <v>0.5083989150673034</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2161603653072177</v>
+        <v>0.6092674240038036</v>
       </c>
       <c r="C4">
-        <v>0.03387878703541958</v>
+        <v>0.1110384039021</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1383270589604066</v>
+        <v>0.2596731421485003</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7897599676313831</v>
+        <v>0.5694376350553512</v>
       </c>
       <c r="H4">
-        <v>0.8727805951642864</v>
+        <v>0.4530055274466491</v>
       </c>
       <c r="I4">
-        <v>0.719439602606009</v>
+        <v>0.4229974778917374</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2294884120931044</v>
+        <v>0.686620630327198</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1937621308272242</v>
+        <v>0.4600711581862882</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086472397703574</v>
+        <v>0.5840050274769339</v>
       </c>
       <c r="C5">
-        <v>0.03249383540565987</v>
+        <v>0.1064403408977057</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.135640358407116</v>
+        <v>0.2491936032701432</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.7903851682388137</v>
+        <v>0.5657438906138452</v>
       </c>
       <c r="H5">
-        <v>0.8743949677764959</v>
+        <v>0.4534977084041287</v>
       </c>
       <c r="I5">
-        <v>0.7210285844773061</v>
+        <v>0.4241191363746282</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2209981818728579</v>
+        <v>0.6581459093867039</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.188347693198601</v>
+        <v>0.4404957424675331</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2074000681861889</v>
+        <v>0.5798123714321264</v>
       </c>
       <c r="C6">
-        <v>0.0322637710716549</v>
+        <v>0.1056777053200477</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1351957811587923</v>
+        <v>0.247459930797703</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7904976872494558</v>
+        <v>0.5651534040740387</v>
       </c>
       <c r="H6">
-        <v>0.8746695464281657</v>
+        <v>0.4535928150854147</v>
       </c>
       <c r="I6">
-        <v>0.7212987323782727</v>
+        <v>0.4243199351523295</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2195885856972666</v>
+        <v>0.6534207164871475</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1874500356190651</v>
+        <v>0.4372518824544613</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2160590155694138</v>
+        <v>0.6089265743948431</v>
       </c>
       <c r="C7">
-        <v>0.03386011539078027</v>
+        <v>0.1109763321038315</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1382907212895361</v>
+        <v>0.2595313703224207</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7897678154615448</v>
+        <v>0.5693862719862608</v>
       </c>
       <c r="H7">
-        <v>0.8728019304524679</v>
+        <v>0.4530112611666084</v>
       </c>
       <c r="I7">
-        <v>0.7194606097968759</v>
+        <v>0.4230116217176381</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2293738966098857</v>
+        <v>0.6862363978503083</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1936890155029616</v>
+        <v>0.4598067017505869</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2543218917618049</v>
+        <v>0.7378054081614209</v>
       </c>
       <c r="C8">
-        <v>0.0408909138260185</v>
+        <v>0.1345116464905658</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1521746284958923</v>
+        <v>0.3138366229218761</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.7878154362507672</v>
+        <v>0.5915616802161736</v>
       </c>
       <c r="H8">
-        <v>0.8655080286595762</v>
+        <v>0.4524679045932487</v>
       </c>
       <c r="I8">
-        <v>0.7122662789933258</v>
+        <v>0.4194416117407904</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2725818865574468</v>
+        <v>0.8315997378319651</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2214255871762987</v>
+        <v>0.560427914009999</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3295304497594884</v>
+        <v>0.9929692507149639</v>
       </c>
       <c r="C9">
-        <v>0.05463205085544587</v>
+        <v>0.1815054443983399</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1802334015684792</v>
+        <v>0.4251042475263489</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.7885762470052242</v>
+        <v>0.6494327772171289</v>
       </c>
       <c r="H9">
-        <v>0.8546175250931611</v>
+        <v>0.4594862418616685</v>
       </c>
       <c r="I9">
-        <v>0.7014670059342905</v>
+        <v>0.4212818567052281</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3574018098875626</v>
+        <v>1.119891361699302</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.27656759910505</v>
+        <v>0.7630315041173503</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3848872835358748</v>
+        <v>1.182959670824857</v>
       </c>
       <c r="C10">
-        <v>0.06470296864520719</v>
+        <v>0.2168500858583826</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2013752515792078</v>
+        <v>0.5108671065312294</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.791963333727665</v>
+        <v>0.7026012378859861</v>
       </c>
       <c r="H10">
-        <v>0.8487043598333059</v>
+        <v>0.47041205407956</v>
       </c>
       <c r="I10">
-        <v>0.6955626887565103</v>
+        <v>0.4289747277889546</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4197730153111365</v>
+        <v>1.334983356922663</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3175555041579301</v>
+        <v>0.916539929869721</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4100916983894081</v>
+        <v>1.270193861097368</v>
       </c>
       <c r="C11">
-        <v>0.069279945352406</v>
+        <v>0.2331826405010275</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2111120281015744</v>
+        <v>0.5510278334631309</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.7941249120798517</v>
+        <v>0.7295621495541695</v>
       </c>
       <c r="H11">
-        <v>0.8464693945928587</v>
+        <v>0.4768414232914751</v>
       </c>
       <c r="I11">
-        <v>0.6933202219017218</v>
+        <v>0.4340838154414755</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4481594019385682</v>
+        <v>1.433870288088571</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3363091507948823</v>
+        <v>0.9877395310523625</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4196389717394879</v>
+        <v>1.303366267020522</v>
       </c>
       <c r="C12">
-        <v>0.07101254905212784</v>
+        <v>0.2394108605370491</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2148165455445863</v>
+        <v>0.5664258433569103</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.7950332227183736</v>
+        <v>0.7402129086811726</v>
       </c>
       <c r="H12">
-        <v>0.8456886280309703</v>
+        <v>0.4795049095473587</v>
       </c>
       <c r="I12">
-        <v>0.6925350483562482</v>
+        <v>0.4362713861437584</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4589104068303413</v>
+        <v>1.471495180651885</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3434264401367386</v>
+        <v>1.014930168283136</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4175826709899866</v>
+        <v>1.296215442110821</v>
       </c>
       <c r="C13">
-        <v>0.07063942803608825</v>
+        <v>0.2380674528406246</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2140179328242482</v>
+        <v>0.5631007283538949</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.7948336013416224</v>
+        <v>0.7378987365338645</v>
       </c>
       <c r="H13">
-        <v>0.8458538617148434</v>
+        <v>0.4789207814954608</v>
       </c>
       <c r="I13">
-        <v>0.6927012993756989</v>
+        <v>0.4357886449098416</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4565949137827943</v>
+        <v>1.463383555280359</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3418929042273362</v>
+        <v>1.009063451250967</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4108771017314155</v>
+        <v>1.272920057217306</v>
       </c>
       <c r="C14">
-        <v>0.06942249954128954</v>
+        <v>0.2336941274202502</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2114164505087572</v>
+        <v>0.5522906759488961</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.7941978373915504</v>
+        <v>0.7304292942782666</v>
       </c>
       <c r="H14">
-        <v>0.8464038455900749</v>
+        <v>0.4770558487723804</v>
       </c>
       <c r="I14">
-        <v>0.6932543412032928</v>
+        <v>0.4342585905767038</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4490438609021226</v>
+        <v>1.436961956575828</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3368943791253187</v>
+        <v>0.9899717380613282</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4067701168568476</v>
+        <v>1.258669736004208</v>
       </c>
       <c r="C15">
-        <v>0.06867701857677844</v>
+        <v>0.2310212124143476</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2098252428379439</v>
+        <v>0.5456947405845156</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.7938201189086698</v>
+        <v>0.7259128312885537</v>
       </c>
       <c r="H15">
-        <v>0.8467492695175878</v>
+        <v>0.4759439173624145</v>
       </c>
       <c r="I15">
-        <v>0.6936014369384935</v>
+        <v>0.4333549885571912</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4444188370607094</v>
+        <v>1.420802123285313</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3338346861220529</v>
+        <v>0.9783083305552864</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3832405390132578</v>
+        <v>1.177276837356004</v>
       </c>
       <c r="C16">
-        <v>0.06440376737785414</v>
+        <v>0.2157884022899168</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2007413523871904</v>
+        <v>0.5082676744125081</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.7918346039193267</v>
+        <v>0.700898633423634</v>
       </c>
       <c r="H16">
-        <v>0.8488595873071887</v>
+        <v>0.470022826042765</v>
       </c>
       <c r="I16">
-        <v>0.6957181823424321</v>
+        <v>0.4286750120706415</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4179181481342766</v>
+        <v>1.328544213256635</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3163320964599166</v>
+        <v>0.9119170749696792</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3688114054590699</v>
+        <v>1.127567040646682</v>
       </c>
       <c r="C17">
-        <v>0.06178117381394088</v>
+        <v>0.2065133443191769</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1951994085708293</v>
+        <v>0.485618190232799</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.7907759067857256</v>
+        <v>0.6862926982337711</v>
       </c>
       <c r="H17">
-        <v>0.8502708275154447</v>
+        <v>0.4667771293683955</v>
       </c>
       <c r="I17">
-        <v>0.6971304784891146</v>
+        <v>0.4262308810915272</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4016641026146033</v>
+        <v>1.272233222336837</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3056226059129372</v>
+        <v>0.871560474508108</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3605142674568071</v>
+        <v>1.099049721772815</v>
       </c>
       <c r="C18">
-        <v>0.06027231785286347</v>
+        <v>0.2012020420138469</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.192023036887278</v>
+        <v>0.4726971015151733</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.7902253725651036</v>
+        <v>0.6781501298738704</v>
       </c>
       <c r="H18">
-        <v>0.8511253502392009</v>
+        <v>0.4650463973971313</v>
       </c>
       <c r="I18">
-        <v>0.6979845181965345</v>
+        <v>0.4249751890029074</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3923164816415294</v>
+        <v>1.239940681190433</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2994729504139428</v>
+        <v>0.8484750700344463</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3577053720627248</v>
+        <v>1.089406374128345</v>
       </c>
       <c r="C19">
-        <v>0.05976137405809823</v>
+        <v>0.1994075573615959</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1909494889271812</v>
+        <v>0.4683397742935824</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.7900489861968225</v>
+        <v>0.6754363464565216</v>
       </c>
       <c r="H19">
-        <v>0.8514220260719725</v>
+        <v>0.464483227089417</v>
       </c>
       <c r="I19">
-        <v>0.6982808404279197</v>
+        <v>0.424575193050714</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3891517641051507</v>
+        <v>1.229022640332488</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2973925230933432</v>
+        <v>0.8406795690462658</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3703471943414343</v>
+        <v>1.132850870962301</v>
       </c>
       <c r="C20">
-        <v>0.06206039557746124</v>
+        <v>0.2074982136574732</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1957881960739272</v>
+        <v>0.4880180913368477</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7908825590515249</v>
+        <v>0.687820489573312</v>
       </c>
       <c r="H20">
-        <v>0.8501161663886023</v>
+        <v>0.4671084207130463</v>
       </c>
       <c r="I20">
-        <v>0.6969758171434179</v>
+        <v>0.4264753784943096</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4033942431316859</v>
+        <v>1.278217481447001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.306761596814745</v>
+        <v>0.8758431729038278</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4128466134091298</v>
+        <v>1.279758520251988</v>
       </c>
       <c r="C21">
-        <v>0.06977995696605888</v>
+        <v>0.2349774418638617</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2121800942682981</v>
+        <v>0.5554604806996153</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.794382136407549</v>
+        <v>0.7326109184379703</v>
       </c>
       <c r="H21">
-        <v>0.8462405213995936</v>
+        <v>0.4775972542505542</v>
       </c>
       <c r="I21">
-        <v>0.6930901606020683</v>
+        <v>0.4347009612801926</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4512617439689564</v>
+        <v>1.444717530357821</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3383621400454189</v>
+        <v>0.9955729525684163</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4406392563889199</v>
+        <v>1.376591784995043</v>
       </c>
       <c r="C22">
-        <v>0.07482166283425329</v>
+        <v>0.2531935978072823</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2229947585348953</v>
+        <v>0.600659069700157</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.7971927807730594</v>
+        <v>0.764478537917455</v>
       </c>
       <c r="H22">
-        <v>0.844089800727275</v>
+        <v>0.4857962100076065</v>
       </c>
       <c r="I22">
-        <v>0.6909238093098438</v>
+        <v>0.4415621815721096</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4825557052014631</v>
+        <v>1.554591163392331</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.359106450130291</v>
+        <v>1.075174741347098</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4258043594211074</v>
+        <v>1.324826891171227</v>
       </c>
       <c r="C23">
-        <v>0.07213111888734147</v>
+        <v>0.2434453237860481</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2172133834976009</v>
+        <v>0.5764241772361274</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.7956446240055328</v>
+        <v>0.7472177632809291</v>
       </c>
       <c r="H23">
-        <v>0.8452026586014654</v>
+        <v>0.4812905541688082</v>
       </c>
       <c r="I23">
-        <v>0.692045811017401</v>
+        <v>0.4377567075850948</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4658527098900436</v>
+        <v>1.495842602981696</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.348026395207512</v>
+        <v>1.032554627168828</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3696528692655647</v>
+        <v>1.130461861392774</v>
       </c>
       <c r="C24">
-        <v>0.06193416282299324</v>
+        <v>0.2070528891701713</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1955219748487949</v>
+        <v>0.4869327851862622</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7908341605400153</v>
+        <v>0.6871289853042271</v>
       </c>
       <c r="H24">
-        <v>0.8501859541787127</v>
+        <v>0.466958223998887</v>
       </c>
       <c r="I24">
-        <v>0.697045608437044</v>
+        <v>0.4263643772437575</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4026120557897457</v>
+        <v>1.275511746521488</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3062466360777378</v>
+        <v>0.8739066055954439</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3091663897014598</v>
+        <v>0.9235782025326387</v>
       </c>
       <c r="C25">
-        <v>0.05091930051403892</v>
+        <v>0.1686724210696298</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.172551619601812</v>
+        <v>0.3943841746257419</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7878759686038137</v>
+        <v>0.6320521922034175</v>
       </c>
       <c r="H25">
-        <v>0.857197552630538</v>
+        <v>0.4566395016061335</v>
       </c>
       <c r="I25">
-        <v>0.7040329468727506</v>
+        <v>0.4197440011711038</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3344462768597793</v>
+        <v>1.041425731524669</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2615680635631819</v>
+        <v>0.7075154864438815</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7728541758987717</v>
+        <v>2.817632658248954</v>
       </c>
       <c r="C2">
-        <v>0.1409350477958924</v>
+        <v>0.9938639734979517</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3288361728777787</v>
+        <v>1.370168940525417</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5984790715455119</v>
+        <v>0.8269549254233368</v>
       </c>
       <c r="H2">
-        <v>0.4528389027708926</v>
+        <v>0.01297449529001643</v>
       </c>
       <c r="I2">
-        <v>0.4190399696573408</v>
+        <v>0.0080534191016155</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5122514496681134</v>
       </c>
       <c r="K2">
-        <v>0.8711599008874771</v>
+        <v>0.3547313468008468</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5879999656842685</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.6537529194058749</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6713625715711089</v>
+        <v>2.449499810661564</v>
       </c>
       <c r="C3">
-        <v>0.1223616928438531</v>
+        <v>0.8660181943978387</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2856680365235533</v>
+        <v>1.192060143739269</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.5794600045679772</v>
+        <v>0.7404094690176493</v>
       </c>
       <c r="H3">
-        <v>0.4523545758474654</v>
+        <v>0.009211099144520327</v>
       </c>
       <c r="I3">
-        <v>0.4208510767714095</v>
+        <v>0.005422390222803219</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4762333812276012</v>
       </c>
       <c r="K3">
-        <v>0.7566380199922236</v>
+        <v>0.3379904458039533</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5083989150673034</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.6720768277829308</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6092674240038036</v>
+        <v>2.222989174503198</v>
       </c>
       <c r="C4">
-        <v>0.1110384039021</v>
+        <v>0.7880524250603855</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2596731421485003</v>
+        <v>1.083167400509197</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5694376350553512</v>
+        <v>0.6878666164700888</v>
       </c>
       <c r="H4">
-        <v>0.4530055274466491</v>
+        <v>0.007159029862464916</v>
       </c>
       <c r="I4">
-        <v>0.4229974778917374</v>
+        <v>0.004065610465914027</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4544845323456173</v>
       </c>
       <c r="K4">
-        <v>0.686620630327198</v>
+        <v>0.3279706305622447</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4600711581862882</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.6839657274974549</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5840050274769339</v>
+        <v>2.128776028006882</v>
       </c>
       <c r="C5">
-        <v>0.1064403408977057</v>
+        <v>0.7569848775538617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2491936032701432</v>
+        <v>1.038855796295891</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5657438906138452</v>
+        <v>0.6654150457429893</v>
       </c>
       <c r="H5">
-        <v>0.4534977084041287</v>
+        <v>0.006379783292803309</v>
       </c>
       <c r="I5">
-        <v>0.4241191363746282</v>
+        <v>0.003624448366656541</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4451103320581495</v>
       </c>
       <c r="K5">
-        <v>0.6581459093867039</v>
+        <v>0.3233116060869605</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4404957424675331</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.6892666504468394</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5798123714321264</v>
+        <v>2.110961852465437</v>
       </c>
       <c r="C6">
-        <v>0.1056777053200477</v>
+        <v>0.7525564764336536</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.247459930797703</v>
+        <v>1.031469244301022</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5651534040740387</v>
+        <v>0.6602678000264888</v>
       </c>
       <c r="H6">
-        <v>0.4535928150854147</v>
+        <v>0.006250811725672656</v>
       </c>
       <c r="I6">
-        <v>0.4243199351523295</v>
+        <v>0.003625885627272396</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4428336773037813</v>
       </c>
       <c r="K6">
-        <v>0.6534207164871475</v>
+        <v>0.3217677630312821</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4372518824544613</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.6905286117217599</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6089265743948431</v>
+        <v>2.215792765885737</v>
       </c>
       <c r="C7">
-        <v>0.1109763321038315</v>
+        <v>0.7896158984223689</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2595313703224207</v>
+        <v>1.082476937428638</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5693862719862608</v>
+        <v>0.6836582212733902</v>
       </c>
       <c r="H7">
-        <v>0.4530112611666084</v>
+        <v>0.007139509106109831</v>
       </c>
       <c r="I7">
-        <v>0.4230116217176381</v>
+        <v>0.004238045131493173</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4523753652420339</v>
       </c>
       <c r="K7">
-        <v>0.6862363978503083</v>
+        <v>0.3257914928644965</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4598067017505869</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.6850711312880975</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7378054081614209</v>
+        <v>2.682841354346067</v>
       </c>
       <c r="C8">
-        <v>0.1345116464905658</v>
+        <v>0.9523075504260134</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3138366229218761</v>
+        <v>1.308513878348421</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.5915616802161736</v>
+        <v>0.7917715554769984</v>
       </c>
       <c r="H8">
-        <v>0.4524679045932487</v>
+        <v>0.01160558447156113</v>
       </c>
       <c r="I8">
-        <v>0.4194416117407904</v>
+        <v>0.007293233014741496</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4971154246358225</v>
       </c>
       <c r="K8">
-        <v>0.8315997378319651</v>
+        <v>0.3460909881081236</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.560427914009999</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.6613849947866655</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9929692507149639</v>
+        <v>3.606894177290826</v>
       </c>
       <c r="C9">
-        <v>0.1815054443983399</v>
+        <v>1.27298481908872</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4251042475263489</v>
+        <v>1.756962358112077</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6494327772171289</v>
+        <v>1.016707132861157</v>
       </c>
       <c r="H9">
-        <v>0.4594862418616685</v>
+        <v>0.02270243446163134</v>
       </c>
       <c r="I9">
-        <v>0.4212818567052281</v>
+        <v>0.01535255824824855</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5918489414939927</v>
       </c>
       <c r="K9">
-        <v>1.119891361699302</v>
+        <v>0.3921364426070966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7630315041173503</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6182918653243448</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.182959670824857</v>
+        <v>4.255175590793669</v>
       </c>
       <c r="C10">
-        <v>0.2168500858583826</v>
+        <v>1.497532504463607</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5108671065312294</v>
+        <v>1.987594654288458</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7026012378859861</v>
+        <v>1.160757846438145</v>
       </c>
       <c r="H10">
-        <v>0.47041205407956</v>
+        <v>0.03176002381723375</v>
       </c>
       <c r="I10">
-        <v>0.4289747277889546</v>
+        <v>0.02284837784439908</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6513058895570509</v>
       </c>
       <c r="K10">
-        <v>1.334983356922663</v>
+        <v>0.4180526566706817</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.916539929869721</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.5971470783592068</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.270193861097368</v>
+        <v>4.298837547128755</v>
       </c>
       <c r="C11">
-        <v>0.2331826405010275</v>
+        <v>1.460422464860471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5510278334631309</v>
+        <v>1.291738902706456</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.7295621495541695</v>
+        <v>1.015709253472465</v>
       </c>
       <c r="H11">
-        <v>0.4768414232914751</v>
+        <v>0.04657845409392891</v>
       </c>
       <c r="I11">
-        <v>0.4340838154414755</v>
+        <v>0.02430516621366774</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5747520763726897</v>
       </c>
       <c r="K11">
-        <v>1.433870288088571</v>
+        <v>0.353366902713006</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9877395310523625</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.6539086658632485</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.303366267020522</v>
+        <v>4.208316715658952</v>
       </c>
       <c r="C12">
-        <v>0.2394108605370491</v>
+        <v>1.381149853074589</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5664258433569103</v>
+        <v>0.7897693304516196</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.7402129086811726</v>
+        <v>0.877957098950148</v>
       </c>
       <c r="H12">
-        <v>0.4795049095473587</v>
+        <v>0.08184144539288951</v>
       </c>
       <c r="I12">
-        <v>0.4362713861437584</v>
+        <v>0.02378135406691051</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5045464823185455</v>
       </c>
       <c r="K12">
-        <v>1.471495180651885</v>
+        <v>0.3008504647490682</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.014930168283136</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7149600064223449</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.296215442110821</v>
+        <v>4.0010314481097</v>
       </c>
       <c r="C13">
-        <v>0.2380674528406246</v>
+        <v>1.268935617212605</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5631007283538949</v>
+        <v>0.4082876288041959</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.7378987365338645</v>
+        <v>0.7324168996077702</v>
       </c>
       <c r="H13">
-        <v>0.4789207814954608</v>
+        <v>0.1341392572930857</v>
       </c>
       <c r="I13">
-        <v>0.4357886449098416</v>
+        <v>0.02198983365296669</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4323116283865147</v>
       </c>
       <c r="K13">
-        <v>1.463383555280359</v>
+        <v>0.2514094177072579</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.009063451250967</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7829321917071184</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.272920057217306</v>
+        <v>3.802973308390278</v>
       </c>
       <c r="C14">
-        <v>0.2336941274202502</v>
+        <v>1.177365325101846</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5522906759488961</v>
+        <v>0.2145324879897004</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.7304292942782666</v>
+        <v>0.6283682704635964</v>
       </c>
       <c r="H14">
-        <v>0.4770558487723804</v>
+        <v>0.181195998049958</v>
       </c>
       <c r="I14">
-        <v>0.4342585905767038</v>
+        <v>0.02031809232954451</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3813722449953758</v>
       </c>
       <c r="K14">
-        <v>1.436961956575828</v>
+        <v>0.2185953024860083</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9899717380613282</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8347912042425207</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.258669736004208</v>
+        <v>3.728028685284357</v>
       </c>
       <c r="C15">
-        <v>0.2310212124143476</v>
+        <v>1.148631601191539</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5456947405845156</v>
+        <v>0.1762909600798928</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.7259128312885537</v>
+        <v>0.599371274376935</v>
       </c>
       <c r="H15">
-        <v>0.4759439173624145</v>
+        <v>0.1929418949175954</v>
       </c>
       <c r="I15">
-        <v>0.4333549885571912</v>
+        <v>0.01972159508092464</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3675878794254714</v>
       </c>
       <c r="K15">
-        <v>1.420802123285313</v>
+        <v>0.2102451943694348</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9783083305552864</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8482417799864237</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.177276837356004</v>
+        <v>3.494633174730097</v>
       </c>
       <c r="C16">
-        <v>0.2157884022899168</v>
+        <v>1.080021390926504</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5082676744125081</v>
+        <v>0.1711578881997511</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.700898633423634</v>
+        <v>0.5691221847812642</v>
       </c>
       <c r="H16">
-        <v>0.470022826042765</v>
+        <v>0.1774795499779316</v>
       </c>
       <c r="I16">
-        <v>0.4286750120706415</v>
+        <v>0.01710536318870393</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3573465955604718</v>
       </c>
       <c r="K16">
-        <v>1.328544213256635</v>
+        <v>0.2090345593314673</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9119170749696792</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8397883818614105</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.127567040646682</v>
+        <v>3.41957652915039</v>
       </c>
       <c r="C17">
-        <v>0.2065133443191769</v>
+        <v>1.075268760700453</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.485618190232799</v>
+        <v>0.2560380171113152</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6862926982337711</v>
+        <v>0.5995633359360824</v>
       </c>
       <c r="H17">
-        <v>0.4667771293683955</v>
+        <v>0.1387227049625466</v>
       </c>
       <c r="I17">
-        <v>0.4262308810915272</v>
+        <v>0.01597732866666135</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.375872776809075</v>
       </c>
       <c r="K17">
-        <v>1.272233222336837</v>
+        <v>0.2249295224733459</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.871560474508108</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8058583353104751</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.099049721772815</v>
+        <v>3.477429043483767</v>
       </c>
       <c r="C18">
-        <v>0.2012020420138469</v>
+        <v>1.124922562326105</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4726971015151733</v>
+        <v>0.4918037635947954</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6781501298738704</v>
+        <v>0.6928362916651594</v>
       </c>
       <c r="H18">
-        <v>0.4650463973971313</v>
+        <v>0.08678053725635948</v>
       </c>
       <c r="I18">
-        <v>0.4249751890029074</v>
+        <v>0.01577058936645237</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4245761180827685</v>
       </c>
       <c r="K18">
-        <v>1.239940681190433</v>
+        <v>0.2607544666684944</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8484750700344463</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7488076293816732</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.089406374128345</v>
+        <v>3.629449803906937</v>
       </c>
       <c r="C19">
-        <v>0.1994075573615959</v>
+        <v>1.221748998862324</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4683397742935824</v>
+        <v>0.9308407959301093</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.6754363464565216</v>
+        <v>0.8322995477357011</v>
       </c>
       <c r="H19">
-        <v>0.464483227089417</v>
+        <v>0.04474227722054991</v>
       </c>
       <c r="I19">
-        <v>0.424575193050714</v>
+        <v>0.01689155908493856</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4947129355708455</v>
       </c>
       <c r="K19">
-        <v>1.229022640332488</v>
+        <v>0.3107020924110415</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8406795690462658</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6877419410918577</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.132850870962301</v>
+        <v>4.064611101601997</v>
       </c>
       <c r="C20">
-        <v>0.2074982136574732</v>
+        <v>1.443907054595627</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4880180913368477</v>
+        <v>1.922111612942899</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.687820489573312</v>
+        <v>1.109194401771504</v>
       </c>
       <c r="H20">
-        <v>0.4671084207130463</v>
+        <v>0.02915449852148821</v>
       </c>
       <c r="I20">
-        <v>0.4264753784943096</v>
+        <v>0.02126713301065486</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6287714278265355</v>
       </c>
       <c r="K20">
-        <v>1.278217481447001</v>
+        <v>0.4041376138654584</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8758431729038278</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6065903967960296</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.279758520251988</v>
+        <v>4.609475764742001</v>
       </c>
       <c r="C21">
-        <v>0.2349774418638617</v>
+        <v>1.642715345676038</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5554604806996153</v>
+        <v>2.261661826454414</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7326109184379703</v>
+        <v>1.262348198430175</v>
       </c>
       <c r="H21">
-        <v>0.4775972542505542</v>
+        <v>0.03818790976198017</v>
       </c>
       <c r="I21">
-        <v>0.4347009612801926</v>
+        <v>0.02806413005870034</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6954230391121143</v>
       </c>
       <c r="K21">
-        <v>1.444717530357821</v>
+        <v>0.4399794705342259</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9955729525684163</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5813095129789474</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376591784995043</v>
+        <v>4.960282458136078</v>
       </c>
       <c r="C22">
-        <v>0.2531935978072823</v>
+        <v>1.762862427750576</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.600659069700157</v>
+        <v>2.432581515462218</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.764478537917455</v>
+        <v>1.356805558019829</v>
       </c>
       <c r="H22">
-        <v>0.4857962100076065</v>
+        <v>0.04412220771101616</v>
       </c>
       <c r="I22">
-        <v>0.4415621815721096</v>
+        <v>0.03261362290041525</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.736309118782799</v>
       </c>
       <c r="K22">
-        <v>1.554591163392331</v>
+        <v>0.4622499029566356</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.075174741347098</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5671178770490215</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.324826891171227</v>
+        <v>4.780313082448458</v>
       </c>
       <c r="C23">
-        <v>0.2434453237860481</v>
+        <v>1.696179896713318</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5764241772361274</v>
+        <v>2.341343363195989</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7472177632809291</v>
+        <v>1.310961088819454</v>
       </c>
       <c r="H23">
-        <v>0.4812905541688082</v>
+        <v>0.0409307067450202</v>
       </c>
       <c r="I23">
-        <v>0.4377567075850948</v>
+        <v>0.02994206671436306</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7167827944325893</v>
       </c>
       <c r="K23">
-        <v>1.495842602981696</v>
+        <v>0.4528252863981947</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.032554627168828</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5731068088486424</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.130461861392774</v>
+        <v>4.088752933374849</v>
       </c>
       <c r="C24">
-        <v>0.2070528891701713</v>
+        <v>1.4501965674541</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4869327851862622</v>
+        <v>1.998793301716304</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6871289853042271</v>
+        <v>1.133195923795029</v>
       </c>
       <c r="H24">
-        <v>0.466958223998887</v>
+        <v>0.02974835399357456</v>
       </c>
       <c r="I24">
-        <v>0.4263643772437575</v>
+        <v>0.02105681232821155</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6407826228801241</v>
       </c>
       <c r="K24">
-        <v>1.275511746521488</v>
+        <v>0.4143962500007987</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8739066055954439</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.5997948377826674</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9235782025326387</v>
+        <v>3.34599588185705</v>
       </c>
       <c r="C25">
-        <v>0.1686724210696298</v>
+        <v>1.18918344614508</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3943841746257419</v>
+        <v>1.634722191659506</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6320521922034175</v>
+        <v>0.9478954920941334</v>
       </c>
       <c r="H25">
-        <v>0.4566395016061335</v>
+        <v>0.01938917328357714</v>
       </c>
       <c r="I25">
-        <v>0.4197440011711038</v>
+        <v>0.01317554641741658</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5621617113341699</v>
       </c>
       <c r="K25">
-        <v>1.041425731524669</v>
+        <v>0.375518792896969</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7075154864438815</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6314649991632209</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.817632658248954</v>
+        <v>2.655999234526234</v>
       </c>
       <c r="C2">
-        <v>0.9938639734979517</v>
+        <v>1.037996713454248</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.370168940525417</v>
+        <v>1.363542097500769</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8269549254233368</v>
+        <v>0.7077257749122765</v>
       </c>
       <c r="H2">
-        <v>0.01297449529001643</v>
+        <v>0.01223076056626704</v>
       </c>
       <c r="I2">
-        <v>0.0080534191016155</v>
+        <v>0.007175717943497695</v>
       </c>
       <c r="J2">
-        <v>0.5122514496681134</v>
+        <v>0.513900215815525</v>
       </c>
       <c r="K2">
-        <v>0.3547313468008468</v>
+        <v>0.3025646440530956</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1735149700251313</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07194694729806628</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6537529194058749</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6913434474311941</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.449499810661564</v>
+        <v>2.31954501396774</v>
       </c>
       <c r="C3">
-        <v>0.8660181943978387</v>
+        <v>0.9010367994182786</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.192060143739269</v>
+        <v>1.187623548798669</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7404094690176493</v>
+        <v>0.6385043255932032</v>
       </c>
       <c r="H3">
-        <v>0.009211099144520327</v>
+        <v>0.008758950485350359</v>
       </c>
       <c r="I3">
-        <v>0.005422390222803219</v>
+        <v>0.00504851698336628</v>
       </c>
       <c r="J3">
-        <v>0.4762333812276012</v>
+        <v>0.4838438144238921</v>
       </c>
       <c r="K3">
-        <v>0.3379904458039533</v>
+        <v>0.2936668895069374</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1762453617396886</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06304975775344701</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6720768277829308</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6992932884787848</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.222989174503198</v>
+        <v>2.111914377528024</v>
       </c>
       <c r="C4">
-        <v>0.7880524250603855</v>
+        <v>0.8175468255278986</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.083167400509197</v>
+        <v>1.0799629872905</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6878666164700888</v>
+        <v>0.596417359840089</v>
       </c>
       <c r="H4">
-        <v>0.007159029862464916</v>
+        <v>0.00685633051121104</v>
       </c>
       <c r="I4">
-        <v>0.004065610465914027</v>
+        <v>0.003937764817696809</v>
       </c>
       <c r="J4">
-        <v>0.4544845323456173</v>
+        <v>0.465364075438643</v>
       </c>
       <c r="K4">
-        <v>0.3279706305622447</v>
+        <v>0.2882976328648894</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1778748509685641</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05822506131076288</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6839657274974549</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7049424747431559</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.128776028006882</v>
+        <v>2.025384643527957</v>
       </c>
       <c r="C5">
-        <v>0.7569848775538617</v>
+        <v>0.7842396901336315</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.038855796295891</v>
+        <v>1.036132022305708</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6654150457429893</v>
+        <v>0.5783071171531873</v>
       </c>
       <c r="H5">
-        <v>0.006379783292803309</v>
+        <v>0.006131586903731279</v>
       </c>
       <c r="I5">
-        <v>0.003624448366656541</v>
+        <v>0.003596019566926678</v>
       </c>
       <c r="J5">
-        <v>0.4451103320581495</v>
+        <v>0.4572716434066706</v>
       </c>
       <c r="K5">
-        <v>0.3233116060869605</v>
+        <v>0.2855819795230872</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.178266238112915</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05626180637345612</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6892666504468394</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7078079027591428</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.110961852465437</v>
+        <v>2.008989633975148</v>
       </c>
       <c r="C6">
-        <v>0.7525564764336536</v>
+        <v>0.779430775544256</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.031469244301022</v>
+        <v>1.028827651489053</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6602678000264888</v>
+        <v>0.5740293571933819</v>
       </c>
       <c r="H6">
-        <v>0.006250811725672656</v>
+        <v>0.006011644181045495</v>
       </c>
       <c r="I6">
-        <v>0.003625885627272396</v>
+        <v>0.003631228138306852</v>
       </c>
       <c r="J6">
-        <v>0.4428336773037813</v>
+        <v>0.4552538706763443</v>
       </c>
       <c r="K6">
-        <v>0.3217677630312821</v>
+        <v>0.2844653362548755</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1780132547820763</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05575675675570579</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6905286117217599</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7087586588223544</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.215792765885737</v>
+        <v>2.102661857809835</v>
       </c>
       <c r="C7">
-        <v>0.7896158984223689</v>
+        <v>0.8170722152351289</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.082476937428638</v>
+        <v>1.079220264243929</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6836582212733902</v>
+        <v>0.5959864530792203</v>
       </c>
       <c r="H7">
-        <v>0.007139509106109831</v>
+        <v>0.006832127244350783</v>
       </c>
       <c r="I7">
-        <v>0.004238045131493173</v>
+        <v>0.004150332113272981</v>
       </c>
       <c r="J7">
-        <v>0.4523753652420339</v>
+        <v>0.4561597112391524</v>
       </c>
       <c r="K7">
-        <v>0.3257914928644965</v>
+        <v>0.2856080221072794</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1766438247122686</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05742077157698233</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6850711312880975</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7068998653178724</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.682841354346067</v>
+        <v>2.524191595150853</v>
       </c>
       <c r="C8">
-        <v>0.9523075504260134</v>
+        <v>0.9865822703788751</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.308513878348421</v>
+        <v>1.302446435331021</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7917715554769984</v>
+        <v>0.6902005982130106</v>
       </c>
       <c r="H8">
-        <v>0.01160558447156113</v>
+        <v>0.01094514171797736</v>
       </c>
       <c r="I8">
-        <v>0.007293233014741496</v>
+        <v>0.00662964244640829</v>
       </c>
       <c r="J8">
-        <v>0.4971154246358225</v>
+        <v>0.4772220980689212</v>
       </c>
       <c r="K8">
-        <v>0.3460909881081236</v>
+        <v>0.2943450255874929</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1722469547728522</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06706737757217596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6613849947866655</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.697985660300553</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.606894177290826</v>
+        <v>3.362507116192091</v>
       </c>
       <c r="C9">
-        <v>1.27298481908872</v>
+        <v>1.328338293287629</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.756962358112077</v>
+        <v>1.74452266786156</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.016707132861157</v>
+        <v>0.8734764331803149</v>
       </c>
       <c r="H9">
-        <v>0.02270243446163134</v>
+        <v>0.02109706112631238</v>
       </c>
       <c r="I9">
-        <v>0.01535255824824855</v>
+        <v>0.01292801464288917</v>
       </c>
       <c r="J9">
-        <v>0.5918489414939927</v>
+        <v>0.5476794460010126</v>
       </c>
       <c r="K9">
-        <v>0.3921364426070966</v>
+        <v>0.3187051096224494</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1660545791937231</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09318688655843843</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6182918653243448</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6820580609632927</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.255175590793669</v>
+        <v>3.933375145109665</v>
       </c>
       <c r="C10">
-        <v>1.497532504463607</v>
+        <v>1.554916994081054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.987594654288458</v>
+        <v>1.969718476840484</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.160757846438145</v>
+        <v>1.009816253371724</v>
       </c>
       <c r="H10">
-        <v>0.03176002381723375</v>
+        <v>0.02924510278802783</v>
       </c>
       <c r="I10">
-        <v>0.02284837784439908</v>
+        <v>0.01867413116743766</v>
       </c>
       <c r="J10">
-        <v>0.6513058895570509</v>
+        <v>0.5485489833914841</v>
       </c>
       <c r="K10">
-        <v>0.4180526566706817</v>
+        <v>0.3254930324897174</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1570240394851012</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1108976222461351</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5971470783592068</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6871789228576546</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.298837547128755</v>
+        <v>3.956342235679585</v>
       </c>
       <c r="C11">
-        <v>1.460422464860471</v>
+        <v>1.486256140529406</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.291738902706456</v>
+        <v>1.275981018191985</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.015709253472465</v>
+        <v>0.9255257903225669</v>
       </c>
       <c r="H11">
-        <v>0.04657845409392891</v>
+        <v>0.04407668474901172</v>
       </c>
       <c r="I11">
-        <v>0.02430516621366774</v>
+        <v>0.01983807935810411</v>
       </c>
       <c r="J11">
-        <v>0.5747520763726897</v>
+        <v>0.4104844959076672</v>
       </c>
       <c r="K11">
-        <v>0.353366902713006</v>
+        <v>0.2659966490776853</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1313938854466521</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09286286097702501</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6539086658632485</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7738216168413885</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.208316715658952</v>
+        <v>3.873790119498437</v>
       </c>
       <c r="C12">
-        <v>1.381149853074589</v>
+        <v>1.388614509780609</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7897693304516196</v>
+        <v>0.7767506036585985</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.877957098950148</v>
+        <v>0.8235022878725857</v>
       </c>
       <c r="H12">
-        <v>0.08184144539288951</v>
+        <v>0.07951475470840563</v>
       </c>
       <c r="I12">
-        <v>0.02378135406691051</v>
+        <v>0.01939041461738533</v>
       </c>
       <c r="J12">
-        <v>0.5045464823185455</v>
+        <v>0.3313635837416058</v>
       </c>
       <c r="K12">
-        <v>0.3008504647490682</v>
+        <v>0.2240459971549029</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1155832182039802</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0772571171014711</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7149600064223449</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8503914527712624</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.0010314481097</v>
+        <v>3.703803266968521</v>
       </c>
       <c r="C13">
-        <v>1.268935617212605</v>
+        <v>1.271005407251607</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4082876288041959</v>
+        <v>0.3983405886854925</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.7324168996077702</v>
+        <v>0.6916444186724959</v>
       </c>
       <c r="H13">
-        <v>0.1341392572930857</v>
+        <v>0.132119494986199</v>
       </c>
       <c r="I13">
-        <v>0.02198983365296669</v>
+        <v>0.01806929591780193</v>
       </c>
       <c r="J13">
-        <v>0.4323116283865147</v>
+        <v>0.2915585104786231</v>
       </c>
       <c r="K13">
-        <v>0.2514094177072579</v>
+        <v>0.190706300007097</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1046775383158582</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.062351952554625</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7829321917071184</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.918865004550625</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.802973308390278</v>
+        <v>3.544059543775063</v>
       </c>
       <c r="C14">
-        <v>1.177365325101846</v>
+        <v>1.180692211080611</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2145324879897004</v>
+        <v>0.2066416988588031</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6283682704635964</v>
+        <v>0.5891782463440904</v>
       </c>
       <c r="H14">
-        <v>0.181195998049958</v>
+        <v>0.1794267466789563</v>
       </c>
       <c r="I14">
-        <v>0.02031809232954451</v>
+        <v>0.01688704016377152</v>
       </c>
       <c r="J14">
-        <v>0.3813722449953758</v>
+        <v>0.2770039093024366</v>
       </c>
       <c r="K14">
-        <v>0.2185953024860083</v>
+        <v>0.1707355353731614</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09880311489226656</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05232183739280316</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8347912042425207</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9631850158072979</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.728028685284357</v>
+        <v>3.48403541154687</v>
       </c>
       <c r="C15">
-        <v>1.148631601191539</v>
+        <v>1.154251168124858</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1762909600798928</v>
+        <v>0.1689759588397202</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.599371274376935</v>
+        <v>0.5577753505439915</v>
       </c>
       <c r="H15">
-        <v>0.1929418949175954</v>
+        <v>0.1912663237345953</v>
       </c>
       <c r="I15">
-        <v>0.01972159508092464</v>
+        <v>0.01651266774703242</v>
       </c>
       <c r="J15">
-        <v>0.3675878794254714</v>
+        <v>0.2781946843597893</v>
       </c>
       <c r="K15">
-        <v>0.2102451943694348</v>
+        <v>0.1664531644595861</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09783207674216854</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04966577370567649</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8482417799864237</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9717272777830885</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.494633174730097</v>
+        <v>3.298002439430377</v>
       </c>
       <c r="C16">
-        <v>1.080021390926504</v>
+        <v>1.101957683968436</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1711578881997511</v>
+        <v>0.1649721456483704</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.5691221847812642</v>
+        <v>0.5047005801251885</v>
       </c>
       <c r="H16">
-        <v>0.1774795499779316</v>
+        <v>0.1761462108689784</v>
       </c>
       <c r="I16">
-        <v>0.01710536318870393</v>
+        <v>0.01467081783367341</v>
       </c>
       <c r="J16">
-        <v>0.3573465955604718</v>
+        <v>0.3234030679318352</v>
       </c>
       <c r="K16">
-        <v>0.2090345593314673</v>
+        <v>0.1735833421603168</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1030341052703072</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04807969109977961</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8397883818614105</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9384679126466295</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.41957652915039</v>
+        <v>3.235482847241599</v>
       </c>
       <c r="C17">
-        <v>1.075268760700453</v>
+        <v>1.106785220546072</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2560380171113152</v>
+        <v>0.2498195319532996</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5995633359360824</v>
+        <v>0.5194018576994779</v>
       </c>
       <c r="H17">
-        <v>0.1387227049625466</v>
+        <v>0.1375171875020129</v>
       </c>
       <c r="I17">
-        <v>0.01597732866666135</v>
+        <v>0.01386823851851204</v>
       </c>
       <c r="J17">
-        <v>0.375872776809075</v>
+        <v>0.3634557004500891</v>
       </c>
       <c r="K17">
-        <v>0.2249295224733459</v>
+        <v>0.1892224502385531</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1104498187241223</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05163269849233387</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8058583353104751</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8932226134389794</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.477429043483767</v>
+        <v>3.282947202298658</v>
       </c>
       <c r="C18">
-        <v>1.124922562326105</v>
+        <v>1.165784757645383</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4918037635947954</v>
+        <v>0.4844809454608381</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6928362916651594</v>
+        <v>0.5933641797013394</v>
       </c>
       <c r="H18">
-        <v>0.08678053725635948</v>
+        <v>0.08553904784542254</v>
       </c>
       <c r="I18">
-        <v>0.01577058936645237</v>
+        <v>0.01362672382174868</v>
       </c>
       <c r="J18">
-        <v>0.4245761180827685</v>
+        <v>0.4158116143266284</v>
       </c>
       <c r="K18">
-        <v>0.2607544666684944</v>
+        <v>0.2179307335495402</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1221793302935481</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06135487472517198</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7488076293816732</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8309596985671988</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629449803906937</v>
+        <v>3.409335532423142</v>
       </c>
       <c r="C19">
-        <v>1.221748998862324</v>
+        <v>1.272987018764184</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9308407959301093</v>
+        <v>0.921254060298125</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.8322995477357011</v>
+        <v>0.7089301318583949</v>
       </c>
       <c r="H19">
-        <v>0.04474227722054991</v>
+        <v>0.04329733093923949</v>
       </c>
       <c r="I19">
-        <v>0.01689155908493856</v>
+        <v>0.01452703637961505</v>
       </c>
       <c r="J19">
-        <v>0.4947129355708455</v>
+        <v>0.478368445223694</v>
       </c>
       <c r="K19">
-        <v>0.3107020924110415</v>
+        <v>0.2556995896465963</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1366835175489989</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07565517271584454</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6877419410918577</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7673440568269001</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.064611101601997</v>
+        <v>3.774807689124259</v>
       </c>
       <c r="C20">
-        <v>1.443907054595627</v>
+        <v>1.508062561396798</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.922111612942899</v>
+        <v>1.906076507250063</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.109194401771504</v>
+        <v>0.9497296617741711</v>
       </c>
       <c r="H20">
-        <v>0.02915449852148821</v>
+        <v>0.02694355659301007</v>
       </c>
       <c r="I20">
-        <v>0.02126713301065486</v>
+        <v>0.01783718644430898</v>
       </c>
       <c r="J20">
-        <v>0.6287714278265355</v>
+        <v>0.5673917697011746</v>
       </c>
       <c r="K20">
-        <v>0.4041376138654584</v>
+        <v>0.3208454538402208</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1583314609379229</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1049651671856999</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6065903967960296</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6879799928376826</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.609475764742001</v>
+        <v>4.200152071599518</v>
       </c>
       <c r="C21">
-        <v>1.642715345676038</v>
+        <v>1.67099376774712</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.261661826454414</v>
+        <v>2.238579751372143</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.262348198430175</v>
+        <v>1.156976163165183</v>
       </c>
       <c r="H21">
-        <v>0.03818790976198017</v>
+        <v>0.03486494364065118</v>
       </c>
       <c r="I21">
-        <v>0.02806413005870034</v>
+        <v>0.02262928618879467</v>
       </c>
       <c r="J21">
-        <v>0.6954230391121143</v>
+        <v>0.461196032640359</v>
       </c>
       <c r="K21">
-        <v>0.4399794705342259</v>
+        <v>0.3226234004001682</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1504005451272867</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1178529710153491</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5813095129789474</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6972542042051444</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.960282458136078</v>
+        <v>4.46836387034125</v>
       </c>
       <c r="C22">
-        <v>1.762862427750576</v>
+        <v>1.763206775947936</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.432581515462218</v>
+        <v>2.404780282904767</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.356805558019829</v>
+        <v>1.296767487583992</v>
       </c>
       <c r="H22">
-        <v>0.04412220771101616</v>
+        <v>0.04001140838159944</v>
       </c>
       <c r="I22">
-        <v>0.03261362290041525</v>
+        <v>0.02564361603962872</v>
       </c>
       <c r="J22">
-        <v>0.736309118782799</v>
+        <v>0.3903059566207929</v>
       </c>
       <c r="K22">
-        <v>0.4622499029566356</v>
+        <v>0.3217633457458717</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1446570148535891</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1257422788616793</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5671178770490215</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7079706186262058</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.780313082448458</v>
+        <v>4.339139177482423</v>
       </c>
       <c r="C23">
-        <v>1.696179896713318</v>
+        <v>1.717083643524177</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.341343363195989</v>
+        <v>2.316262107199762</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.310961088819454</v>
+        <v>1.216362728968988</v>
       </c>
       <c r="H23">
-        <v>0.0409307067450202</v>
+        <v>0.03727273686297394</v>
       </c>
       <c r="I23">
-        <v>0.02994206671436306</v>
+        <v>0.02377309821629936</v>
       </c>
       <c r="J23">
-        <v>0.7167827944325893</v>
+        <v>0.4440921365353887</v>
       </c>
       <c r="K23">
-        <v>0.4528252863981947</v>
+        <v>0.326243676172119</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1490681640915312</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1232008308649419</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5731068088486424</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6976975411878925</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.088752933374849</v>
+        <v>3.795751891725104</v>
       </c>
       <c r="C24">
-        <v>1.4501965674541</v>
+        <v>1.515787003766661</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.998793301716304</v>
+        <v>1.98234280786923</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.133195923795029</v>
+        <v>0.9695503490331276</v>
       </c>
       <c r="H24">
-        <v>0.02974835399357456</v>
+        <v>0.02749531256820559</v>
       </c>
       <c r="I24">
-        <v>0.02105681232821155</v>
+        <v>0.01747882095934816</v>
       </c>
       <c r="J24">
-        <v>0.6407826228801241</v>
+        <v>0.5788594178009561</v>
       </c>
       <c r="K24">
-        <v>0.4143962500007987</v>
+        <v>0.3289597035953875</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1614329331515698</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1080330356031673</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5997948377826674</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6794584299400341</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.34599588185705</v>
+        <v>3.130051979323866</v>
       </c>
       <c r="C25">
-        <v>1.18918344614508</v>
+        <v>1.241665068915779</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.634722191659506</v>
+        <v>1.624284820671235</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.9478954920941334</v>
+        <v>0.8121543109491114</v>
       </c>
       <c r="H25">
-        <v>0.01938917328357714</v>
+        <v>0.01809104296820796</v>
       </c>
       <c r="I25">
-        <v>0.01317554641741658</v>
+        <v>0.01141711319900995</v>
       </c>
       <c r="J25">
-        <v>0.5621617113341699</v>
+        <v>0.5355727046247409</v>
       </c>
       <c r="K25">
-        <v>0.375518792896969</v>
+        <v>0.3099481956706782</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1669698106579069</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08479084059404585</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6314649991632209</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6873506044361122</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
